--- a/Code/Results/Cases/Case_1_200/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_200/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2698300813123922</v>
+        <v>0.1424977709956892</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01649424959075318</v>
+        <v>0.005807487234779529</v>
       </c>
       <c r="E2">
-        <v>0.0500674460581223</v>
+        <v>0.1057584759616947</v>
       </c>
       <c r="F2">
-        <v>0.6966076821001224</v>
+        <v>0.3718757801769073</v>
       </c>
       <c r="G2">
-        <v>0.634154854578469</v>
+        <v>0.2574595956363908</v>
       </c>
       <c r="H2">
-        <v>0.3293560863906464</v>
+        <v>0.3318063431118219</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.838420791986735</v>
+        <v>0.5878127933305421</v>
       </c>
       <c r="N2">
-        <v>2.273543810259753</v>
+        <v>1.469340516368959</v>
       </c>
       <c r="O2">
-        <v>1.988163110736394</v>
+        <v>1.094333041502466</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2362427182918339</v>
+        <v>0.1329151663101698</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01434722991781712</v>
+        <v>0.005159819009612931</v>
       </c>
       <c r="E3">
-        <v>0.04843126748678017</v>
+        <v>0.1086794443102992</v>
       </c>
       <c r="F3">
-        <v>0.6069571496332316</v>
+        <v>0.3503061484837247</v>
       </c>
       <c r="G3">
-        <v>0.5488248007014107</v>
+        <v>0.2357554001262656</v>
       </c>
       <c r="H3">
-        <v>0.2940150729033348</v>
+        <v>0.325221279927348</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.599268726003672</v>
+        <v>0.5138342799021132</v>
       </c>
       <c r="N3">
-        <v>2.090327572757076</v>
+        <v>1.412118234844286</v>
       </c>
       <c r="O3">
-        <v>1.732918660808394</v>
+        <v>1.034226808312042</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.215730385857114</v>
+        <v>0.1270974125729936</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0130295426823217</v>
+        <v>0.004762600002866435</v>
       </c>
       <c r="E4">
-        <v>0.04802686427423986</v>
+        <v>0.110665057293458</v>
       </c>
       <c r="F4">
-        <v>0.5527891012629738</v>
+        <v>0.3373112911113338</v>
       </c>
       <c r="G4">
-        <v>0.4972289515549733</v>
+        <v>0.2225899383044663</v>
       </c>
       <c r="H4">
-        <v>0.2728174052432166</v>
+        <v>0.3213857305289167</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.452659216718075</v>
+        <v>0.4682921863596761</v>
       </c>
       <c r="N4">
-        <v>1.978872432788194</v>
+        <v>1.377486344751787</v>
       </c>
       <c r="O4">
-        <v>1.578926640371463</v>
+        <v>0.9980857925205555</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2073968095500618</v>
+        <v>0.1247434455953282</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01249263243242638</v>
+        <v>0.004600856605890158</v>
       </c>
       <c r="E5">
-        <v>0.0480013413048539</v>
+        <v>0.1115221410048459</v>
       </c>
       <c r="F5">
-        <v>0.5309127332846373</v>
+        <v>0.3320782194013532</v>
       </c>
       <c r="G5">
-        <v>0.4763803591432776</v>
+        <v>0.2172651167785915</v>
       </c>
       <c r="H5">
-        <v>0.2642947508801257</v>
+        <v>0.3198749083758514</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.392949232074528</v>
+        <v>0.4497044331874633</v>
       </c>
       <c r="N5">
-        <v>1.933705597419504</v>
+        <v>1.363502128123514</v>
       </c>
       <c r="O5">
-        <v>1.516788200330552</v>
+        <v>0.9835496024267059</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2060144893555247</v>
+        <v>0.1243535931561581</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01240347986076173</v>
+        <v>0.004574007262860391</v>
       </c>
       <c r="E6">
-        <v>0.04800518752331229</v>
+        <v>0.1116673428104189</v>
       </c>
       <c r="F6">
-        <v>0.5272914581405814</v>
+        <v>0.3312130379675935</v>
       </c>
       <c r="G6">
-        <v>0.4729285083495682</v>
+        <v>0.216383354860028</v>
       </c>
       <c r="H6">
-        <v>0.2628862514227563</v>
+        <v>0.3196271890059137</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.38303587072032</v>
+        <v>0.4466162284019362</v>
       </c>
       <c r="N6">
-        <v>1.926220637757496</v>
+        <v>1.361187886994799</v>
       </c>
       <c r="O6">
-        <v>1.506505259050016</v>
+        <v>0.9811474300563532</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2156178967287872</v>
+        <v>0.1270655977794064</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01302230160350604</v>
+        <v>0.004760418144439171</v>
       </c>
       <c r="E7">
-        <v>0.04802597103972595</v>
+        <v>0.1106764226615748</v>
       </c>
       <c r="F7">
-        <v>0.5524932987055919</v>
+        <v>0.3372404634936643</v>
       </c>
       <c r="G7">
-        <v>0.4969470927837989</v>
+        <v>0.2225179634499597</v>
       </c>
       <c r="H7">
-        <v>0.2727020114222256</v>
+        <v>0.3213651437619092</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.451853836712232</v>
+        <v>0.4680416215080356</v>
       </c>
       <c r="N7">
-        <v>1.978262288591338</v>
+        <v>1.377297225357268</v>
       </c>
       <c r="O7">
-        <v>1.578086223100343</v>
+        <v>0.9978889776081701</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2582247437590723</v>
+        <v>0.1391801169005475</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01575377731547434</v>
+        <v>0.005584085006280048</v>
       </c>
       <c r="E8">
-        <v>0.04937147993376101</v>
+        <v>0.1067255206982551</v>
       </c>
       <c r="F8">
-        <v>0.6654996265925774</v>
+        <v>0.3643867845611481</v>
       </c>
       <c r="G8">
-        <v>0.6045531286082451</v>
+        <v>0.2499424014263525</v>
       </c>
       <c r="H8">
-        <v>0.317059744328219</v>
+        <v>0.3294926804022396</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.755898507310363</v>
+        <v>0.5623302377808272</v>
       </c>
       <c r="N8">
-        <v>2.210148843866818</v>
+        <v>1.449507158988155</v>
       </c>
       <c r="O8">
-        <v>1.89954388302354</v>
+        <v>1.073449331504975</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3427708546709454</v>
+        <v>0.1634521087393352</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02111955201953819</v>
+        <v>0.007202387369975582</v>
       </c>
       <c r="E9">
-        <v>0.05733563529125618</v>
+        <v>0.1005193123292933</v>
       </c>
       <c r="F9">
-        <v>0.8951922403685586</v>
+        <v>0.4196070520171418</v>
       </c>
       <c r="G9">
-        <v>0.8230241166208287</v>
+        <v>0.3050143363936542</v>
       </c>
       <c r="H9">
-        <v>0.4085428376539966</v>
+        <v>0.3470816658063711</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.355141422119573</v>
+        <v>0.7462535127781393</v>
       </c>
       <c r="N9">
-        <v>2.673631745185361</v>
+        <v>1.595015869560115</v>
       </c>
       <c r="O9">
-        <v>2.555053503353633</v>
+        <v>1.227727183310407</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4056704670897062</v>
+        <v>0.1815897941911828</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02507485834092193</v>
+        <v>0.008392693194828382</v>
       </c>
       <c r="E10">
-        <v>0.06727907508114583</v>
+        <v>0.09692274725936301</v>
       </c>
       <c r="F10">
-        <v>1.070565202369707</v>
+        <v>0.461407877260271</v>
       </c>
       <c r="G10">
-        <v>0.9897804045950949</v>
+        <v>0.3462889127864912</v>
       </c>
       <c r="H10">
-        <v>0.4792730517122124</v>
+        <v>0.36101659559003</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.799079463331026</v>
+        <v>0.8807565515107427</v>
       </c>
       <c r="N10">
-        <v>3.02028331460798</v>
+        <v>1.704201265293932</v>
       </c>
       <c r="O10">
-        <v>3.057207495367521</v>
+        <v>1.344862573927685</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4344969356933319</v>
+        <v>0.1899055038935558</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02687887247322607</v>
+        <v>0.008934375093460289</v>
       </c>
       <c r="E11">
-        <v>0.07289814095294034</v>
+        <v>0.09550074769918382</v>
       </c>
       <c r="F11">
-        <v>1.152192619057615</v>
+        <v>0.4806957960630172</v>
       </c>
       <c r="G11">
-        <v>1.067410983498178</v>
+        <v>0.3652480036625008</v>
       </c>
       <c r="H11">
-        <v>0.5124022248432567</v>
+        <v>0.367577149910133</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>3.002294224635847</v>
+        <v>0.9418041721421844</v>
       </c>
       <c r="N11">
-        <v>3.179511377597748</v>
+        <v>1.754347378327935</v>
       </c>
       <c r="O11">
-        <v>3.291382239865186</v>
+        <v>1.398987853658014</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4454469430280028</v>
+        <v>0.1930635664858329</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02756284090153827</v>
+        <v>0.009139513645834541</v>
       </c>
       <c r="E12">
-        <v>0.07520260762859365</v>
+        <v>0.09499347649300205</v>
       </c>
       <c r="F12">
-        <v>1.183405691961028</v>
+        <v>0.4880390724165551</v>
       </c>
       <c r="G12">
-        <v>1.097099926549205</v>
+        <v>0.372454003601149</v>
       </c>
       <c r="H12">
-        <v>0.5251016031863998</v>
+        <v>0.3700933823506034</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>3.079469958244644</v>
+        <v>0.9649006505349291</v>
       </c>
       <c r="N12">
-        <v>3.240044631620918</v>
+        <v>1.773403095966614</v>
       </c>
       <c r="O12">
-        <v>3.38099897463394</v>
+        <v>1.419605371796592</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4430870924084331</v>
+        <v>0.1923830208949227</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02741549676179034</v>
+        <v>0.009095332931515543</v>
       </c>
       <c r="E13">
-        <v>0.07469812010860721</v>
+        <v>0.0951013316482765</v>
       </c>
       <c r="F13">
-        <v>1.176669326378445</v>
+        <v>0.486455813172185</v>
       </c>
       <c r="G13">
-        <v>1.090692273212426</v>
+        <v>0.3709008749752769</v>
       </c>
       <c r="H13">
-        <v>0.5223594265023053</v>
+        <v>0.3695500475313338</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>3.062838183593925</v>
+        <v>0.9599273576716314</v>
       </c>
       <c r="N13">
-        <v>3.226996893990588</v>
+        <v>1.769296183641586</v>
       </c>
       <c r="O13">
-        <v>3.361654684990867</v>
+        <v>1.415159607964654</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.435397096804067</v>
+        <v>0.1901651388805448</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02693512548908217</v>
+        <v>0.008951251738835708</v>
       </c>
       <c r="E14">
-        <v>0.07308407488990554</v>
+        <v>0.09545838628977421</v>
       </c>
       <c r="F14">
-        <v>1.154754253214094</v>
+        <v>0.4812991420065202</v>
       </c>
       <c r="G14">
-        <v>1.069847436284533</v>
+        <v>0.3658403108537982</v>
       </c>
       <c r="H14">
-        <v>0.5134438200558691</v>
+        <v>0.3677835224357722</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>3.008638806655838</v>
+        <v>0.9437047585989831</v>
       </c>
       <c r="N14">
-        <v>3.184486635357985</v>
+        <v>1.755913783642143</v>
       </c>
       <c r="O14">
-        <v>3.298735538055894</v>
+        <v>1.400681631332304</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.430691290981855</v>
+        <v>0.1888077981938494</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02664099658987595</v>
+        <v>0.008862999428195906</v>
       </c>
       <c r="E15">
-        <v>0.07211902692171535</v>
+        <v>0.09568116947913552</v>
       </c>
       <c r="F15">
-        <v>1.141371177225736</v>
+        <v>0.4781456629824419</v>
       </c>
       <c r="G15">
-        <v>1.057118544089136</v>
+        <v>0.3627440419991927</v>
       </c>
       <c r="H15">
-        <v>0.5080033473066976</v>
+        <v>0.3667056295017233</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.975470408737834</v>
+        <v>0.9337651924121531</v>
       </c>
       <c r="N15">
-        <v>3.158479254327403</v>
+        <v>1.747725270877936</v>
       </c>
       <c r="O15">
-        <v>3.260321692852102</v>
+        <v>1.391829289236711</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4037911645981893</v>
+        <v>0.1810476267981187</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02495706920419849</v>
+        <v>0.008357295935859099</v>
       </c>
       <c r="E16">
-        <v>0.06693549666723797</v>
+        <v>0.09702002251664155</v>
       </c>
       <c r="F16">
-        <v>1.065270932417405</v>
+        <v>0.4601528648906879</v>
       </c>
       <c r="G16">
-        <v>0.9847458245453993</v>
+        <v>0.3450535993470112</v>
       </c>
       <c r="H16">
-        <v>0.4771285879384095</v>
+        <v>0.3605923085063552</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.785827752046259</v>
+        <v>0.8767640721859635</v>
       </c>
       <c r="N16">
-        <v>3.009909633466748</v>
+        <v>1.700933516733244</v>
       </c>
       <c r="O16">
-        <v>3.042028709175781</v>
+        <v>1.341342317346886</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3873457543580656</v>
+        <v>0.1763034408433839</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02392534569463933</v>
+        <v>0.008047105821006539</v>
       </c>
       <c r="E17">
-        <v>0.06404925111544557</v>
+        <v>0.09789650079799372</v>
       </c>
       <c r="F17">
-        <v>1.019084660164069</v>
+        <v>0.4491847867966925</v>
       </c>
       <c r="G17">
-        <v>0.9408268343385799</v>
+        <v>0.3342481742829193</v>
       </c>
       <c r="H17">
-        <v>0.4584437832083523</v>
+        <v>0.3568987427014605</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.669839902084703</v>
+        <v>0.8417595361178769</v>
       </c>
       <c r="N17">
-        <v>2.919171232819281</v>
+        <v>1.672348967884972</v>
       </c>
       <c r="O17">
-        <v>2.909661959728993</v>
+        <v>1.310585778442629</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3779066341672888</v>
+        <v>0.1735808223692317</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02333236078442269</v>
+        <v>0.007868712895270136</v>
       </c>
       <c r="E18">
-        <v>0.06249105460793203</v>
+        <v>0.09842075432035102</v>
       </c>
       <c r="F18">
-        <v>0.9926912443801257</v>
+        <v>0.4429018783877297</v>
       </c>
       <c r="G18">
-        <v>0.9157302120129458</v>
+        <v>0.3280503953542251</v>
       </c>
       <c r="H18">
-        <v>0.4477854424241627</v>
+        <v>0.3547951459239442</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.603243161751905</v>
+        <v>0.8216128781593568</v>
       </c>
       <c r="N18">
-        <v>2.867124279240272</v>
+        <v>1.655952927526073</v>
       </c>
       <c r="O18">
-        <v>2.834061223005591</v>
+        <v>1.292974436068391</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3747140180560962</v>
+        <v>0.1726600473234328</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02313165673050577</v>
+        <v>0.007808316021961303</v>
       </c>
       <c r="E19">
-        <v>0.06198042337983622</v>
+        <v>0.09860170143116065</v>
       </c>
       <c r="F19">
-        <v>0.9837833120592592</v>
+        <v>0.44077899196499</v>
       </c>
       <c r="G19">
-        <v>0.9072600872669199</v>
+        <v>0.325954882263801</v>
       </c>
       <c r="H19">
-        <v>0.4441914465414669</v>
+        <v>0.3540864829510042</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.580713465313437</v>
+        <v>0.8147893686155072</v>
       </c>
       <c r="N19">
-        <v>2.849526223124144</v>
+        <v>1.650409310447628</v>
       </c>
       <c r="O19">
-        <v>2.8085523557952</v>
+        <v>1.287025086426922</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3890943184507876</v>
+        <v>0.1768078366705197</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02403512835646282</v>
+        <v>0.008080124098782449</v>
       </c>
       <c r="E20">
-        <v>0.06434581839118536</v>
+        <v>0.0978011121255058</v>
       </c>
       <c r="F20">
-        <v>1.02398324129669</v>
+        <v>0.4503497025313266</v>
       </c>
       <c r="G20">
-        <v>0.9454848105189484</v>
+        <v>0.3353966464481175</v>
       </c>
       <c r="H20">
-        <v>0.4604235179401144</v>
+        <v>0.3572897714334857</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.68217467696708</v>
+        <v>0.8454871789546559</v>
       </c>
       <c r="N20">
-        <v>2.92881553749902</v>
+        <v>1.675387196387021</v>
       </c>
       <c r="O20">
-        <v>2.92369665497543</v>
+        <v>1.313851682775976</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4376548827474949</v>
+        <v>0.1908163399091478</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02707619847379306</v>
+        <v>0.008993571573867598</v>
       </c>
       <c r="E21">
-        <v>0.07355320401214271</v>
+        <v>0.09535266030610856</v>
       </c>
       <c r="F21">
-        <v>1.161182723359985</v>
+        <v>0.4828127117327909</v>
       </c>
       <c r="G21">
-        <v>1.075961835976273</v>
+        <v>0.3673259969865796</v>
       </c>
       <c r="H21">
-        <v>0.5160582257558985</v>
+        <v>0.368301527764757</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>3.024552087264979</v>
+        <v>0.9484703053065147</v>
       </c>
       <c r="N21">
-        <v>3.196966358041834</v>
+        <v>1.759842731794549</v>
       </c>
       <c r="O21">
-        <v>3.317189951341732</v>
+        <v>1.404930862457775</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4695922044241456</v>
+        <v>0.2000245461899652</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02906861513814363</v>
+        <v>0.009590645302125722</v>
       </c>
       <c r="E22">
-        <v>0.08061057578285258</v>
+        <v>0.09393456328208671</v>
       </c>
       <c r="F22">
-        <v>1.252633245058874</v>
+        <v>0.5042586651307062</v>
       </c>
       <c r="G22">
-        <v>1.162957263300086</v>
+        <v>0.3883488677905689</v>
       </c>
       <c r="H22">
-        <v>0.5533257663663846</v>
+        <v>0.37568426367298</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3.249635678350998</v>
+        <v>1.015653265042246</v>
       </c>
       <c r="N22">
-        <v>3.373608701590626</v>
+        <v>1.815425783913867</v>
       </c>
       <c r="O22">
-        <v>3.579898921139034</v>
+        <v>1.46516458846645</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4525271622470655</v>
+        <v>0.1951051951023857</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02800472389593267</v>
+        <v>0.009271972925660066</v>
       </c>
       <c r="E23">
-        <v>0.07674200257227071</v>
+        <v>0.09467462559733875</v>
       </c>
       <c r="F23">
-        <v>1.203648339027893</v>
+        <v>0.4927915000540111</v>
       </c>
       <c r="G23">
-        <v>1.116355579943743</v>
+        <v>0.3771142744199238</v>
       </c>
       <c r="H23">
-        <v>0.5333463938724208</v>
+        <v>0.3717269327487145</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>3.129368946548027</v>
+        <v>0.9798079948167953</v>
       </c>
       <c r="N23">
-        <v>3.279198367599264</v>
+        <v>1.785725401249294</v>
       </c>
       <c r="O23">
-        <v>3.439139116299884</v>
+        <v>1.432951687095965</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3883037443971489</v>
+        <v>0.1765797841077728</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02398549510676773</v>
+        <v>0.008065196722647272</v>
       </c>
       <c r="E24">
-        <v>0.06421142670422952</v>
+        <v>0.09784417397323253</v>
       </c>
       <c r="F24">
-        <v>1.021768098105795</v>
+        <v>0.4498229731644869</v>
       </c>
       <c r="G24">
-        <v>0.9433784657214943</v>
+        <v>0.3348773773374205</v>
       </c>
       <c r="H24">
-        <v>0.4595282201057245</v>
+        <v>0.3571129254090692</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.676597859719266</v>
+        <v>0.8438019803464698</v>
       </c>
       <c r="N24">
-        <v>2.924454975543625</v>
+        <v>1.67401349600442</v>
       </c>
       <c r="O24">
-        <v>2.917350024512615</v>
+        <v>1.312374946311792</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3197746843843277</v>
+        <v>0.156831658639689</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01966623884637997</v>
+        <v>0.006764318950843062</v>
       </c>
       <c r="E25">
-        <v>0.05452787684676963</v>
+        <v>0.1020308138487032</v>
       </c>
       <c r="F25">
-        <v>0.8320218478919514</v>
+        <v>0.4044538254139809</v>
       </c>
       <c r="G25">
-        <v>0.7629559519560019</v>
+        <v>0.2899749218860705</v>
       </c>
       <c r="H25">
-        <v>0.383236213634035</v>
+        <v>0.3421460325277366</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.19252823343686</v>
+        <v>0.6966050668417978</v>
       </c>
       <c r="N25">
-        <v>2.54723224715741</v>
+        <v>1.555244302609822</v>
       </c>
       <c r="O25">
-        <v>2.374514235618193</v>
+        <v>1.185330592191576</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_200/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_200/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424977709956892</v>
+        <v>0.2698300813123922</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005807487234779529</v>
+        <v>0.01649424959097345</v>
       </c>
       <c r="E2">
-        <v>0.1057584759616947</v>
+        <v>0.05006744605813296</v>
       </c>
       <c r="F2">
-        <v>0.3718757801769073</v>
+        <v>0.6966076821001224</v>
       </c>
       <c r="G2">
-        <v>0.2574595956363908</v>
+        <v>0.6341548545783695</v>
       </c>
       <c r="H2">
-        <v>0.3318063431118219</v>
+        <v>0.3293560863906464</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5878127933305421</v>
+        <v>1.838420791986763</v>
       </c>
       <c r="N2">
-        <v>1.469340516368959</v>
+        <v>2.273543810259724</v>
       </c>
       <c r="O2">
-        <v>1.094333041502466</v>
+        <v>1.988163110736394</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329151663101698</v>
+        <v>0.2362427182918339</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.005159819009612931</v>
+        <v>0.01434722991798765</v>
       </c>
       <c r="E3">
-        <v>0.1086794443102992</v>
+        <v>0.0484312674867855</v>
       </c>
       <c r="F3">
-        <v>0.3503061484837247</v>
+        <v>0.6069571496332173</v>
       </c>
       <c r="G3">
-        <v>0.2357554001262656</v>
+        <v>0.5488248007013823</v>
       </c>
       <c r="H3">
-        <v>0.325221279927348</v>
+        <v>0.2940150729033348</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5138342799021132</v>
+        <v>1.599268726003672</v>
       </c>
       <c r="N3">
-        <v>1.412118234844286</v>
+        <v>2.090327572757047</v>
       </c>
       <c r="O3">
-        <v>1.034226808312042</v>
+        <v>1.732918660808394</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1270974125729936</v>
+        <v>0.2157303858571282</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004762600002866435</v>
+        <v>0.01302954268209788</v>
       </c>
       <c r="E4">
-        <v>0.110665057293458</v>
+        <v>0.04802686427422742</v>
       </c>
       <c r="F4">
-        <v>0.3373112911113338</v>
+        <v>0.5527891012629667</v>
       </c>
       <c r="G4">
-        <v>0.2225899383044663</v>
+        <v>0.4972289515550301</v>
       </c>
       <c r="H4">
-        <v>0.3213857305289167</v>
+        <v>0.2728174052430887</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4682921863596761</v>
+        <v>1.452659216718047</v>
       </c>
       <c r="N4">
-        <v>1.377486344751787</v>
+        <v>1.97887243278808</v>
       </c>
       <c r="O4">
-        <v>0.9980857925205555</v>
+        <v>1.578926640371435</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1247434455953282</v>
+        <v>0.207396809550076</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004600856605890158</v>
+        <v>0.01249263243269638</v>
       </c>
       <c r="E5">
-        <v>0.1115221410048459</v>
+        <v>0.04800134130485212</v>
       </c>
       <c r="F5">
-        <v>0.3320782194013532</v>
+        <v>0.5309127332846302</v>
       </c>
       <c r="G5">
-        <v>0.2172651167785915</v>
+        <v>0.4763803591432918</v>
       </c>
       <c r="H5">
-        <v>0.3198749083758514</v>
+        <v>0.2642947508801399</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4497044331874633</v>
+        <v>1.3929492320745</v>
       </c>
       <c r="N5">
-        <v>1.363502128123514</v>
+        <v>1.933705597419504</v>
       </c>
       <c r="O5">
-        <v>0.9835496024267059</v>
+        <v>1.516788200330637</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1243535931561581</v>
+        <v>0.2060144893555247</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004574007262860391</v>
+        <v>0.01240347986071555</v>
       </c>
       <c r="E6">
-        <v>0.1116673428104189</v>
+        <v>0.0480051875232963</v>
       </c>
       <c r="F6">
-        <v>0.3312130379675935</v>
+        <v>0.5272914581406027</v>
       </c>
       <c r="G6">
-        <v>0.216383354860028</v>
+        <v>0.4729285083494972</v>
       </c>
       <c r="H6">
-        <v>0.3196271890059137</v>
+        <v>0.2628862514227563</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4466162284019362</v>
+        <v>1.383035870720335</v>
       </c>
       <c r="N6">
-        <v>1.361187886994799</v>
+        <v>1.926220637757496</v>
       </c>
       <c r="O6">
-        <v>0.9811474300563532</v>
+        <v>1.506505259050073</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1270655977794064</v>
+        <v>0.215617896728773</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004760418144439171</v>
+        <v>0.01302230160356643</v>
       </c>
       <c r="E7">
-        <v>0.1106764226615748</v>
+        <v>0.04802597103971173</v>
       </c>
       <c r="F7">
-        <v>0.3372404634936643</v>
+        <v>0.552493298705599</v>
       </c>
       <c r="G7">
-        <v>0.2225179634499597</v>
+        <v>0.4969470927837847</v>
       </c>
       <c r="H7">
-        <v>0.3213651437619092</v>
+        <v>0.2727020114221119</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4680416215080356</v>
+        <v>1.451853836712232</v>
       </c>
       <c r="N7">
-        <v>1.377297225357268</v>
+        <v>1.978262288591338</v>
       </c>
       <c r="O7">
-        <v>0.9978889776081701</v>
+        <v>1.578086223100343</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391801169005475</v>
+        <v>0.2582247437589018</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005584085006280048</v>
+        <v>0.01575377731530736</v>
       </c>
       <c r="E8">
-        <v>0.1067255206982551</v>
+        <v>0.04937147993371127</v>
       </c>
       <c r="F8">
-        <v>0.3643867845611481</v>
+        <v>0.6654996265925774</v>
       </c>
       <c r="G8">
-        <v>0.2499424014263525</v>
+        <v>0.6045531286082166</v>
       </c>
       <c r="H8">
-        <v>0.3294926804022396</v>
+        <v>0.3170597443281054</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5623302377808272</v>
+        <v>1.755898507310363</v>
       </c>
       <c r="N8">
-        <v>1.449507158988155</v>
+        <v>2.210148843866875</v>
       </c>
       <c r="O8">
-        <v>1.073449331504975</v>
+        <v>1.89954388302354</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1634521087393352</v>
+        <v>0.3427708546709454</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007202387369975582</v>
+        <v>0.02111955201925397</v>
       </c>
       <c r="E9">
-        <v>0.1005193123292933</v>
+        <v>0.05733563529123842</v>
       </c>
       <c r="F9">
-        <v>0.4196070520171418</v>
+        <v>0.8951922403685444</v>
       </c>
       <c r="G9">
-        <v>0.3050143363936542</v>
+        <v>0.8230241166207861</v>
       </c>
       <c r="H9">
-        <v>0.3470816658063711</v>
+        <v>0.4085428376541103</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7462535127781393</v>
+        <v>2.355141422119559</v>
       </c>
       <c r="N9">
-        <v>1.595015869560115</v>
+        <v>2.673631745185332</v>
       </c>
       <c r="O9">
-        <v>1.227727183310407</v>
+        <v>2.55505350335369</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1815897941911828</v>
+        <v>0.4056704670897062</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.008392693194828382</v>
+        <v>0.0250748583408793</v>
       </c>
       <c r="E10">
-        <v>0.09692274725936301</v>
+        <v>0.06727907508118491</v>
       </c>
       <c r="F10">
-        <v>0.461407877260271</v>
+        <v>1.070565202369707</v>
       </c>
       <c r="G10">
-        <v>0.3462889127864912</v>
+        <v>0.9897804045950949</v>
       </c>
       <c r="H10">
-        <v>0.36101659559003</v>
+        <v>0.4792730517120987</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8807565515107427</v>
+        <v>2.799079463330997</v>
       </c>
       <c r="N10">
-        <v>1.704201265293932</v>
+        <v>3.02028331460798</v>
       </c>
       <c r="O10">
-        <v>1.344862573927685</v>
+        <v>3.057207495367521</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1899055038935558</v>
+        <v>0.4344969356938719</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.008934375093460289</v>
+        <v>0.02687887247329712</v>
       </c>
       <c r="E11">
-        <v>0.09550074769918382</v>
+        <v>0.07289814095292257</v>
       </c>
       <c r="F11">
-        <v>0.4806957960630172</v>
+        <v>1.152192619057615</v>
       </c>
       <c r="G11">
-        <v>0.3652480036625008</v>
+        <v>1.067410983498135</v>
       </c>
       <c r="H11">
-        <v>0.367577149910133</v>
+        <v>0.512402224843143</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9418041721421844</v>
+        <v>3.002294224635847</v>
       </c>
       <c r="N11">
-        <v>1.754347378327935</v>
+        <v>3.179511377597805</v>
       </c>
       <c r="O11">
-        <v>1.398987853658014</v>
+        <v>3.291382239865158</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1930635664858329</v>
+        <v>0.4454469430277328</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.009139513645834541</v>
+        <v>0.02756284090149563</v>
       </c>
       <c r="E12">
-        <v>0.09499347649300205</v>
+        <v>0.07520260762857589</v>
       </c>
       <c r="F12">
-        <v>0.4880390724165551</v>
+        <v>1.183405691961028</v>
       </c>
       <c r="G12">
-        <v>0.372454003601149</v>
+        <v>1.097099926549234</v>
       </c>
       <c r="H12">
-        <v>0.3700933823506034</v>
+        <v>0.5251016031863998</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9649006505349291</v>
+        <v>3.07946995824463</v>
       </c>
       <c r="N12">
-        <v>1.773403095966614</v>
+        <v>3.240044631620918</v>
       </c>
       <c r="O12">
-        <v>1.419605371796592</v>
+        <v>3.380998974633883</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1923830208949227</v>
+        <v>0.4430870924084189</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.009095332931515543</v>
+        <v>0.0274154967618756</v>
       </c>
       <c r="E13">
-        <v>0.0951013316482765</v>
+        <v>0.07469812010864985</v>
       </c>
       <c r="F13">
-        <v>0.486455813172185</v>
+        <v>1.176669326378459</v>
       </c>
       <c r="G13">
-        <v>0.3709008749752769</v>
+        <v>1.090692273212468</v>
       </c>
       <c r="H13">
-        <v>0.3695500475313338</v>
+        <v>0.5223594265021774</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9599273576716314</v>
+        <v>3.062838183593925</v>
       </c>
       <c r="N13">
-        <v>1.769296183641586</v>
+        <v>3.22699689399056</v>
       </c>
       <c r="O13">
-        <v>1.415159607964654</v>
+        <v>3.361654684990754</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1901651388805448</v>
+        <v>0.4353970968043228</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.008951251738835708</v>
+        <v>0.02693512548915322</v>
       </c>
       <c r="E14">
-        <v>0.09545838628977421</v>
+        <v>0.07308407488989133</v>
       </c>
       <c r="F14">
-        <v>0.4812991420065202</v>
+        <v>1.154754253214065</v>
       </c>
       <c r="G14">
-        <v>0.3658403108537982</v>
+        <v>1.069847436284505</v>
       </c>
       <c r="H14">
-        <v>0.3677835224357722</v>
+        <v>0.5134438200559828</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9437047585989831</v>
+        <v>3.008638806655824</v>
       </c>
       <c r="N14">
-        <v>1.755913783642143</v>
+        <v>3.184486635358013</v>
       </c>
       <c r="O14">
-        <v>1.400681631332304</v>
+        <v>3.298735538055865</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1888077981938494</v>
+        <v>0.430691290981926</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.008862999428195906</v>
+        <v>0.02664099659006069</v>
       </c>
       <c r="E15">
-        <v>0.09568116947913552</v>
+        <v>0.07211902692169403</v>
       </c>
       <c r="F15">
-        <v>0.4781456629824419</v>
+        <v>1.141371177225722</v>
       </c>
       <c r="G15">
-        <v>0.3627440419991927</v>
+        <v>1.057118544089164</v>
       </c>
       <c r="H15">
-        <v>0.3667056295017233</v>
+        <v>0.5080033473065981</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9337651924121531</v>
+        <v>2.97547040873782</v>
       </c>
       <c r="N15">
-        <v>1.747725270877936</v>
+        <v>3.158479254327432</v>
       </c>
       <c r="O15">
-        <v>1.391829289236711</v>
+        <v>3.260321692852159</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1810476267981187</v>
+        <v>0.4037911645984877</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.008357295935859099</v>
+        <v>0.02495706920437613</v>
       </c>
       <c r="E16">
-        <v>0.09702002251664155</v>
+        <v>0.06693549666725929</v>
       </c>
       <c r="F16">
-        <v>0.4601528648906879</v>
+        <v>1.06527093241742</v>
       </c>
       <c r="G16">
-        <v>0.3450535993470112</v>
+        <v>0.9847458245453851</v>
       </c>
       <c r="H16">
-        <v>0.3605923085063552</v>
+        <v>0.4771285879384095</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8767640721859635</v>
+        <v>2.785827752046259</v>
       </c>
       <c r="N16">
-        <v>1.700933516733244</v>
+        <v>3.009909633466748</v>
       </c>
       <c r="O16">
-        <v>1.341342317346886</v>
+        <v>3.04202870917581</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1763034408433839</v>
+        <v>0.3873457543578382</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.008047105821006539</v>
+        <v>0.0239253456945292</v>
       </c>
       <c r="E17">
-        <v>0.09789650079799372</v>
+        <v>0.06404925111544557</v>
       </c>
       <c r="F17">
-        <v>0.4491847867966925</v>
+        <v>1.019084660164069</v>
       </c>
       <c r="G17">
-        <v>0.3342481742829193</v>
+        <v>0.9408268343385799</v>
       </c>
       <c r="H17">
-        <v>0.3568987427014605</v>
+        <v>0.458443783208466</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8417595361178769</v>
+        <v>2.669839902084732</v>
       </c>
       <c r="N17">
-        <v>1.672348967884972</v>
+        <v>2.919171232819167</v>
       </c>
       <c r="O17">
-        <v>1.310585778442629</v>
+        <v>2.909661959729135</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1735808223692317</v>
+        <v>0.3779066341675588</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.007868712895270136</v>
+        <v>0.0233323607843765</v>
       </c>
       <c r="E18">
-        <v>0.09842075432035102</v>
+        <v>0.06249105460791426</v>
       </c>
       <c r="F18">
-        <v>0.4429018783877297</v>
+        <v>0.9926912443801115</v>
       </c>
       <c r="G18">
-        <v>0.3280503953542251</v>
+        <v>0.915730212012889</v>
       </c>
       <c r="H18">
-        <v>0.3547951459239442</v>
+        <v>0.4477854424241627</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8216128781593568</v>
+        <v>2.603243161751905</v>
       </c>
       <c r="N18">
-        <v>1.655952927526073</v>
+        <v>2.86712427924013</v>
       </c>
       <c r="O18">
-        <v>1.292974436068391</v>
+        <v>2.834061223005591</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1726600473234328</v>
+        <v>0.3747140180558546</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.007808316021961303</v>
+        <v>0.02313165673056972</v>
       </c>
       <c r="E19">
-        <v>0.09860170143116065</v>
+        <v>0.06198042337985399</v>
       </c>
       <c r="F19">
-        <v>0.44077899196499</v>
+        <v>0.9837833120592734</v>
       </c>
       <c r="G19">
-        <v>0.325954882263801</v>
+        <v>0.907260087266863</v>
       </c>
       <c r="H19">
-        <v>0.3540864829510042</v>
+        <v>0.4441914465414527</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8147893686155072</v>
+        <v>2.580713465313437</v>
       </c>
       <c r="N19">
-        <v>1.650409310447628</v>
+        <v>2.849526223124144</v>
       </c>
       <c r="O19">
-        <v>1.287025086426922</v>
+        <v>2.8085523557952</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1768078366705197</v>
+        <v>0.3890943184502902</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.008080124098782449</v>
+        <v>0.02403512835634913</v>
       </c>
       <c r="E20">
-        <v>0.0978011121255058</v>
+        <v>0.06434581839116404</v>
       </c>
       <c r="F20">
-        <v>0.4503497025313266</v>
+        <v>1.02398324129669</v>
       </c>
       <c r="G20">
-        <v>0.3353966464481175</v>
+        <v>0.9454848105189626</v>
       </c>
       <c r="H20">
-        <v>0.3572897714334857</v>
+        <v>0.4604235179401002</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8454871789546559</v>
+        <v>2.682174676967065</v>
       </c>
       <c r="N20">
-        <v>1.675387196387021</v>
+        <v>2.928815537498906</v>
       </c>
       <c r="O20">
-        <v>1.313851682775976</v>
+        <v>2.92369665497543</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1908163399091478</v>
+        <v>0.4376548827477365</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.008993571573867598</v>
+        <v>0.0270761984739778</v>
       </c>
       <c r="E21">
-        <v>0.09535266030610856</v>
+        <v>0.07355320401213206</v>
       </c>
       <c r="F21">
-        <v>0.4828127117327909</v>
+        <v>1.161182723359985</v>
       </c>
       <c r="G21">
-        <v>0.3673259969865796</v>
+        <v>1.075961835976258</v>
       </c>
       <c r="H21">
-        <v>0.368301527764757</v>
+        <v>0.5160582257558843</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9484703053065147</v>
+        <v>3.024552087264979</v>
       </c>
       <c r="N21">
-        <v>1.759842731794549</v>
+        <v>3.196966358041948</v>
       </c>
       <c r="O21">
-        <v>1.404930862457775</v>
+        <v>3.317189951341732</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2000245461899652</v>
+        <v>0.4695922044244725</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.009590645302125722</v>
+        <v>0.02906861513806547</v>
       </c>
       <c r="E22">
-        <v>0.09393456328208671</v>
+        <v>0.08061057578285613</v>
       </c>
       <c r="F22">
-        <v>0.5042586651307062</v>
+        <v>1.252633245058874</v>
       </c>
       <c r="G22">
-        <v>0.3883488677905689</v>
+        <v>1.162957263300086</v>
       </c>
       <c r="H22">
-        <v>0.37568426367298</v>
+        <v>0.5533257663664131</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.015653265042246</v>
+        <v>3.249635678351012</v>
       </c>
       <c r="N22">
-        <v>1.815425783913867</v>
+        <v>3.373608701590626</v>
       </c>
       <c r="O22">
-        <v>1.46516458846645</v>
+        <v>3.57989892113909</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1951051951023857</v>
+        <v>0.4525271622470797</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.009271972925660066</v>
+        <v>0.02800472389589714</v>
       </c>
       <c r="E23">
-        <v>0.09467462559733875</v>
+        <v>0.07674200257227071</v>
       </c>
       <c r="F23">
-        <v>0.4927915000540111</v>
+        <v>1.203648339027893</v>
       </c>
       <c r="G23">
-        <v>0.3771142744199238</v>
+        <v>1.116355579943772</v>
       </c>
       <c r="H23">
-        <v>0.3717269327487145</v>
+        <v>0.5333463938724492</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9798079948167953</v>
+        <v>3.129368946548013</v>
       </c>
       <c r="N23">
-        <v>1.785725401249294</v>
+        <v>3.27919836759915</v>
       </c>
       <c r="O23">
-        <v>1.432951687095965</v>
+        <v>3.439139116299827</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1765797841077728</v>
+        <v>0.3883037443971062</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.008065196722647272</v>
+        <v>0.02398549510681747</v>
       </c>
       <c r="E24">
-        <v>0.09784417397323253</v>
+        <v>0.06421142670425084</v>
       </c>
       <c r="F24">
-        <v>0.4498229731644869</v>
+        <v>1.021768098105795</v>
       </c>
       <c r="G24">
-        <v>0.3348773773374205</v>
+        <v>0.943378465721409</v>
       </c>
       <c r="H24">
-        <v>0.3571129254090692</v>
+        <v>0.4595282201057245</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8438019803464698</v>
+        <v>2.67659785971928</v>
       </c>
       <c r="N24">
-        <v>1.67401349600442</v>
+        <v>2.924454975543654</v>
       </c>
       <c r="O24">
-        <v>1.312374946311792</v>
+        <v>2.917350024512643</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.156831658639689</v>
+        <v>0.3197746843843561</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.006764318950843062</v>
+        <v>0.01966623884626628</v>
       </c>
       <c r="E25">
-        <v>0.1020308138487032</v>
+        <v>0.05452787684676252</v>
       </c>
       <c r="F25">
-        <v>0.4044538254139809</v>
+        <v>0.8320218478919514</v>
       </c>
       <c r="G25">
-        <v>0.2899749218860705</v>
+        <v>0.7629559519559734</v>
       </c>
       <c r="H25">
-        <v>0.3421460325277366</v>
+        <v>0.3832362136339071</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6966050668417978</v>
+        <v>2.192528233436846</v>
       </c>
       <c r="N25">
-        <v>1.555244302609822</v>
+        <v>2.547232247157439</v>
       </c>
       <c r="O25">
-        <v>1.185330592191576</v>
+        <v>2.374514235618193</v>
       </c>
     </row>
   </sheetData>
